--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -106,7 +106,7 @@
     <t>Cafe Pergamino</t>
   </si>
   <si>
-    <t>479e09ea-2b9d-4dd6-bb8c-5c7a6f9ffad1</t>
+    <t>3682b4c4-071c-4169-83cf-9187129c1ff6</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>10077</v>
+        <v>10085</v>
       </c>
       <c r="B3" s="1">
         <v>43751.664581122684</v>
@@ -316,7 +316,7 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -346,7 +346,7 @@
         <v>1431.3319999999999</v>
       </c>
       <c r="O3">
-        <v>0.868</v>
+        <v>28.62664</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -373,15 +373,15 @@
         <v>30</v>
       </c>
       <c r="AA3" s="1">
-        <v>43755.714764837961</v>
+        <v>43756.759581053244</v>
       </c>
       <c r="AB3" s="1">
-        <v>43755.714764837961</v>
+        <v>43756.759581053244</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4">
-        <v>10078</v>
+        <v>10086</v>
       </c>
       <c r="B4" s="1">
         <v>43751.67061828704</v>
@@ -393,7 +393,7 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -423,7 +423,7 @@
         <v>1431.3319999999999</v>
       </c>
       <c r="O4">
-        <v>0.868</v>
+        <v>28.62664</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>30</v>
       </c>
       <c r="AA4" s="1">
-        <v>43755.714767754631</v>
+        <v>43756.75958395833</v>
       </c>
       <c r="AB4" s="1">
-        <v>43755.714767754631</v>
+        <v>43756.75958395833</v>
       </c>
     </row>
   </sheetData>

--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="31">
   <si>
     <t>InvoiceCalculationId</t>
   </si>
@@ -106,7 +106,7 @@
     <t>Cafe Pergamino</t>
   </si>
   <si>
-    <t>3682b4c4-071c-4169-83cf-9187129c1ff6</t>
+    <t>ad7c41a6-d810-4520-ba27-192bd7cbb8aa</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A2:AB4"/>
+  <dimension ref="A2:AB3"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -304,7 +304,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>10085</v>
+        <v>10087</v>
       </c>
       <c r="B3" s="1">
         <v>43751.664581122684</v>
@@ -373,92 +373,14 @@
         <v>30</v>
       </c>
       <c r="AA3" s="1">
-        <v>43756.759581053244</v>
+        <v>43757.707379652777</v>
       </c>
       <c r="AB3" s="1">
-        <v>43756.759581053244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4">
-        <v>10086</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43751.67061828704</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>43.4</v>
-      </c>
-      <c r="M4">
-        <v>32.98</v>
-      </c>
-      <c r="N4">
-        <v>1431.3319999999999</v>
-      </c>
-      <c r="O4">
-        <v>28.62664</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>43756.75958395833</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>43756.75958395833</v>
+        <v>43757.707379652777</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
 </worksheet>
 </file>
--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -13,8 +13,109 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="31">
+  <si>
+    <t>InvoiceCalculationId</t>
+  </si>
+  <si>
+    <t>DocumentDate</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>ProformaInvoiceId</t>
+  </si>
+  <si>
+    <t>InvoiceId</t>
+  </si>
+  <si>
+    <t>IdCD</t>
+  </si>
+  <si>
+    <t>NoCD</t>
+  </si>
+  <si>
+    <t>ProductId</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ValorLps</t>
+  </si>
+  <si>
+    <t>ValorFacturar</t>
+  </si>
+  <si>
+    <t>IngresoMercadería</t>
+  </si>
+  <si>
+    <t>MercaderiaCertificada</t>
+  </si>
+  <si>
+    <t>Dias2</t>
+  </si>
+  <si>
+    <t>PorcentajeMerma</t>
+  </si>
+  <si>
+    <t>ValorLpsMerma</t>
+  </si>
+  <si>
+    <t>ValorAFacturarMerma</t>
+  </si>
+  <si>
+    <t>IdEstado</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>UsuarioCreacion</t>
+  </si>
+  <si>
+    <t>UsuarioModificacion</t>
+  </si>
+  <si>
+    <t>FechaCreacion</t>
+  </si>
+  <si>
+    <t>FechaModificacion</t>
+  </si>
+  <si>
+    <t>Comercial Intern. de Granos de Honduras</t>
+  </si>
+  <si>
+    <t>Cafe Pergamino</t>
+  </si>
+  <si>
+    <t>73c97013-2a50-4c78-9152-cbdaa615babe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -65,7 +166,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -89,6 +190,7 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,13 +208,178 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
+  <dimension ref="A2:AB3"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3">
+        <v>10097</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43751.664581122684</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>43.4</v>
+      </c>
+      <c r="M3">
+        <v>32.98</v>
+      </c>
+      <c r="N3">
+        <v>1431.3319999999999</v>
+      </c>
+      <c r="O3">
+        <v>28.62664</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>43762.512669953707</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>43762.512669953707</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>

--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -106,7 +106,7 @@
     <t>Cafe Pergamino</t>
   </si>
   <si>
-    <t>73c97013-2a50-4c78-9152-cbdaa615babe</t>
+    <t>1608891a-0f76-442b-818f-f69b7d76a473</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>10097</v>
+        <v>10102</v>
       </c>
       <c r="B3" s="1">
         <v>43751.664581122684</v>
@@ -358,13 +358,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>44.268</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.88536</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -373,10 +373,10 @@
         <v>30</v>
       </c>
       <c r="AA3" s="1">
-        <v>43762.512669953707</v>
+        <v>43763.55624972222</v>
       </c>
       <c r="AB3" s="1">
-        <v>43762.512669953707</v>
+        <v>43763.55624972222</v>
       </c>
     </row>
   </sheetData>

--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="34">
   <si>
     <t>InvoiceCalculationId</t>
   </si>
@@ -106,17 +107,20 @@
     <t>Cafe Pergamino</t>
   </si>
   <si>
-    <t>1608891a-0f76-442b-818f-f69b7d76a473</t>
+    <t>ee36f34b-88cf-453a-aa70-6d2b8963fd46</t>
+  </si>
+  <si>
+    <t>erp@bi-dss.com</t>
+  </si>
+  <si>
+    <t>Created with a trial version of Syncfusion Essential XlsIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -139,6 +143,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -166,7 +181,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -190,7 +205,8 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -210,7 +226,7 @@
   <sheetPr/>
   <dimension ref="A2:AB3"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -304,10 +320,10 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>10102</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43751.664581122684</v>
+        <v>43742.055485115743</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -325,7 +341,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>22</v>
@@ -337,22 +353,22 @@
         <v>30</v>
       </c>
       <c r="L3">
-        <v>43.4</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>32.98</v>
       </c>
       <c r="N3">
-        <v>1431.3319999999999</v>
+        <v>758.54</v>
       </c>
       <c r="O3">
-        <v>28.62664</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1099.3333333333333</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>32.98</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -361,10 +377,10 @@
         <v>0.03</v>
       </c>
       <c r="T3">
-        <v>44.268</v>
+        <v>23.46</v>
       </c>
       <c r="U3">
-        <v>0.88536</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -372,15 +388,46 @@
       <c r="X3" t="s">
         <v>30</v>
       </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>31</v>
+      </c>
       <c r="AA3" s="1">
-        <v>43763.55624972222</v>
+        <v>43766.484943888892</v>
       </c>
       <c r="AB3" s="1">
-        <v>43763.55624972222</v>
+        <v>43766.484943888892</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF4500"/>
+  </sheetPr>
+  <dimension ref="A10"/>
+  <sheetViews>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="1:1" ht="25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="F7F5" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+</worksheet>
 </file>
--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="33">
   <si>
     <t>InvoiceCalculationId</t>
   </si>
@@ -107,53 +106,42 @@
     <t>Cafe Pergamino</t>
   </si>
   <si>
-    <t>ee36f34b-88cf-453a-aa70-6d2b8963fd46</t>
+    <t>18cf60aa-698a-45ca-afd6-8e9e66b162cb</t>
   </si>
   <si>
     <t>erp@bi-dss.com</t>
-  </si>
-  <si>
-    <t>Created with a trial version of Syncfusion Essential XlsIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="7">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="5">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -181,7 +169,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -205,8 +193,7 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,7 +213,7 @@
   <sheetPr/>
   <dimension ref="A2:AB3"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -320,10 +307,10 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>2</v>
+        <v>10126</v>
       </c>
       <c r="B3" s="1">
-        <v>43742.055485115743</v>
+        <v>43751.664581122684</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -341,7 +328,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>22</v>
@@ -353,16 +340,16 @@
         <v>30</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>43.4</v>
       </c>
       <c r="M3">
         <v>32.98</v>
       </c>
       <c r="N3">
-        <v>758.54</v>
+        <v>1431.3319999999999</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>28.62664</v>
       </c>
       <c r="P3">
         <v>1099.3333333333333</v>
@@ -377,10 +364,10 @@
         <v>0.03</v>
       </c>
       <c r="T3">
-        <v>23.46</v>
+        <v>44.268</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.88536</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -395,39 +382,14 @@
         <v>31</v>
       </c>
       <c r="AA3" s="1">
-        <v>43766.484943888892</v>
+        <v>43769.8642193287</v>
       </c>
       <c r="AB3" s="1">
-        <v>43766.484943888892</v>
+        <v>43769.8642193287</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF4500"/>
-  </sheetPr>
-  <dimension ref="A10"/>
-  <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="10" spans="1:1" ht="25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="F7F5" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-</worksheet>
 </file>
--- a/ERPMVC/Spreadsheet.xlsx
+++ b/ERPMVC/Spreadsheet.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullPrecision="1" calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="34">
   <si>
     <t>InvoiceCalculationId</t>
   </si>
@@ -106,20 +107,20 @@
     <t>Cafe Pergamino</t>
   </si>
   <si>
-    <t>18cf60aa-698a-45ca-afd6-8e9e66b162cb</t>
+    <t>ee36f34b-88cf-453a-aa70-6d2b8963fd46</t>
   </si>
   <si>
     <t>erp@bi-dss.com</t>
+  </si>
+  <si>
+    <t>Created with a trial version of Syncfusion Essential XlsIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -142,6 +143,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -169,7 +181,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -193,7 +205,8 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +226,7 @@
   <sheetPr/>
   <dimension ref="A2:AB3"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+    <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -307,10 +320,10 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3">
-        <v>10126</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43751.664581122684</v>
+        <v>43742.055485115743</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -328,7 +341,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>22</v>
@@ -340,16 +353,16 @@
         <v>30</v>
       </c>
       <c r="L3">
-        <v>43.4</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>32.98</v>
       </c>
       <c r="N3">
-        <v>1431.3319999999999</v>
+        <v>758.54</v>
       </c>
       <c r="O3">
-        <v>28.62664</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>1099.3333333333333</v>
@@ -364,10 +377,10 @@
         <v>0.03</v>
       </c>
       <c r="T3">
-        <v>44.268</v>
+        <v>23.46</v>
       </c>
       <c r="U3">
-        <v>0.88536</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -382,14 +395,39 @@
         <v>31</v>
       </c>
       <c r="AA3" s="1">
-        <v>43769.8642193287</v>
+        <v>43766.484943888892</v>
       </c>
       <c r="AB3" s="1">
-        <v>43769.8642193287</v>
+        <v>43766.484943888892</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF4500"/>
+  </sheetPr>
+  <dimension ref="A10"/>
+  <sheetViews>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="10" spans="1:1" ht="25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="F7F5" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+</worksheet>
 </file>